--- a/src/main/python/lenteles/rez2.xlsx
+++ b/src/main/python/lenteles/rez2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>SKU</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>FRG732377</t>
+  </si>
+  <si>
+    <t>15321027</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>FRG734285</t>
+  </si>
+  <si>
+    <t>15642778</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
   <si>
     <t>FRG735160</t>
@@ -531,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,13 +746,13 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>11004</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>25</v>
@@ -758,49 +776,49 @@
         <v>9644</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U3">
         <v>11004</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W3">
-        <v>9516</v>
+        <v>9644</v>
       </c>
       <c r="X3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y3">
         <v>11004</v>
       </c>
       <c r="Z3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC3">
         <v>11004</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE3">
         <v>9644</v>
       </c>
       <c r="AF3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG3">
-        <v>9516</v>
+        <v>9644</v>
       </c>
       <c r="AH3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI3">
         <v>9442</v>
@@ -838,7 +856,7 @@
         <v>25</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <v>12704</v>
@@ -924,7 +942,7 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>10952</v>
@@ -966,7 +984,7 @@
         <v>9597</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>10952</v>
@@ -984,7 +1002,7 @@
         <v>10952</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE5">
         <v>10952</v>
@@ -1016,16 +1034,10 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="U6">
         <v>12704</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>9053</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -1066,10 +1078,10 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="E7">
+        <v>9053</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1084,7 +1096,7 @@
         <v>25</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>25</v>
@@ -1120,7 +1132,7 @@
         <v>9053</v>
       </c>
       <c r="Z7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7">
         <v>9053</v>
@@ -1132,7 +1144,7 @@
         <v>9053</v>
       </c>
       <c r="AD7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE7">
         <v>9053</v>
@@ -1144,7 +1156,7 @@
         <v>9053</v>
       </c>
       <c r="AH7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI7">
         <v>9053</v>
@@ -1179,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="U8">
-        <v>9796</v>
+        <v>9462</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -1226,31 +1238,13 @@
         <v>42</v>
       </c>
       <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>9568</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>10952</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>9568</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>10952</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>9462</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1264,30 +1258,30 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>9462</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>10207</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="Y10">
+        <v>10952</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>12639</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>9462</v>
+        <v>12704</v>
       </c>
       <c r="AD10">
+        <v>6</v>
+      </c>
+      <c r="AI10">
+        <v>12704</v>
+      </c>
+      <c r="AJ10">
         <v>1</v>
       </c>
     </row>
@@ -1299,33 +1293,109 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>10952</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>10952</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>9568</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>10952</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>9462</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>10207</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>9462</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="Q11">
+      <c r="Q13">
         <v>10952</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="U11">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>10207</v>
       </c>
-      <c r="V11">
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <v>10207</v>
       </c>
-      <c r="Z11">
-        <v>5</v>
-      </c>
-      <c r="AC11">
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
         <v>10207</v>
       </c>
-      <c r="AD11">
+      <c r="AD13">
         <v>4</v>
       </c>
     </row>
